--- a/Results/nursery-results.xlsx
+++ b/Results/nursery-results.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>min_supp</t>
   </si>
   <si>
     <t>min_conf</t>
+  </si>
+  <si>
+    <t>clf_rules_count</t>
   </si>
   <si>
     <t>accuracy</t>
@@ -383,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +405,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -414,13 +420,16 @@
         <v>20</v>
       </c>
       <c r="D2">
+        <v>107</v>
+      </c>
+      <c r="E2">
         <v>92.51000000000001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.64</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -431,13 +440,16 @@
         <v>20</v>
       </c>
       <c r="D3">
+        <v>71</v>
+      </c>
+      <c r="E3">
         <v>90.92</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -448,13 +460,16 @@
         <v>20</v>
       </c>
       <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
         <v>89.48</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.88</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -465,13 +480,16 @@
         <v>20</v>
       </c>
       <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
         <v>87.69</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -482,13 +500,16 @@
         <v>20</v>
       </c>
       <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
         <v>87.69</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.84</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -499,13 +520,16 @@
         <v>20</v>
       </c>
       <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
         <v>80.18000000000001</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.9399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -516,13 +540,16 @@
         <v>20</v>
       </c>
       <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
         <v>78.06999999999999</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -533,13 +560,16 @@
         <v>20</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>78.81</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.97</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -550,13 +580,16 @@
         <v>20</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>78.81</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -567,13 +600,16 @@
         <v>20</v>
       </c>
       <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>76.56</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.06</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -584,13 +620,16 @@
         <v>20</v>
       </c>
       <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>76.31</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.96</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -601,13 +640,16 @@
         <v>20</v>
       </c>
       <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
         <v>70.95999999999999</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.78</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -618,13 +660,16 @@
         <v>20</v>
       </c>
       <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
         <v>70.95999999999999</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.78</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -635,13 +680,16 @@
         <v>20</v>
       </c>
       <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
         <v>70.95999999999999</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.78</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -652,13 +700,16 @@
         <v>20</v>
       </c>
       <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
         <v>70.95999999999999</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.78</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -669,13 +720,16 @@
         <v>20</v>
       </c>
       <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
         <v>70.95999999999999</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.78</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -686,13 +740,16 @@
         <v>20</v>
       </c>
       <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
         <v>70.95999999999999</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.78</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -703,13 +760,16 @@
         <v>20</v>
       </c>
       <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
         <v>70.95999999999999</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.78</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -720,13 +780,16 @@
         <v>20</v>
       </c>
       <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>69.31999999999999</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2.4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -737,13 +800,16 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F21">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -754,13 +820,16 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F22">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -771,13 +840,16 @@
         <v>20</v>
       </c>
       <c r="D23">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F23">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -788,13 +860,16 @@
         <v>20</v>
       </c>
       <c r="D24">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F24">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -805,13 +880,16 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F25">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -822,13 +900,16 @@
         <v>20</v>
       </c>
       <c r="D26">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F26">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -839,13 +920,16 @@
         <v>20</v>
       </c>
       <c r="D27">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F27">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -856,13 +940,16 @@
         <v>20</v>
       </c>
       <c r="D28">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F28">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -873,13 +960,16 @@
         <v>20</v>
       </c>
       <c r="D29">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F29">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -890,13 +980,16 @@
         <v>20</v>
       </c>
       <c r="D30">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F30">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -907,13 +1000,16 @@
         <v>20</v>
       </c>
       <c r="D31">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F31">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -924,13 +1020,16 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F32">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -941,13 +1040,16 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F33">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -958,13 +1060,16 @@
         <v>20</v>
       </c>
       <c r="D34">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F34">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -975,13 +1080,16 @@
         <v>40</v>
       </c>
       <c r="D35">
+        <v>107</v>
+      </c>
+      <c r="E35">
         <v>92.51000000000001</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.64</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -992,13 +1100,16 @@
         <v>40</v>
       </c>
       <c r="D36">
+        <v>71</v>
+      </c>
+      <c r="E36">
         <v>90.92</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.97</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1009,13 +1120,16 @@
         <v>40</v>
       </c>
       <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37">
         <v>89.48</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.88</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1026,13 +1140,16 @@
         <v>40</v>
       </c>
       <c r="D38">
+        <v>19</v>
+      </c>
+      <c r="E38">
         <v>87.69</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.84</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1043,13 +1160,16 @@
         <v>40</v>
       </c>
       <c r="D39">
+        <v>19</v>
+      </c>
+      <c r="E39">
         <v>87.69</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.84</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1060,13 +1180,16 @@
         <v>40</v>
       </c>
       <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
         <v>80.18000000000001</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.9399999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1077,13 +1200,16 @@
         <v>40</v>
       </c>
       <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
         <v>78.06999999999999</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>0.85</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1094,13 +1220,16 @@
         <v>40</v>
       </c>
       <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
         <v>78.81</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.97</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1111,13 +1240,16 @@
         <v>40</v>
       </c>
       <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
         <v>78.81</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.97</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1128,13 +1260,16 @@
         <v>40</v>
       </c>
       <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
         <v>76.56</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>1.06</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1145,13 +1280,16 @@
         <v>40</v>
       </c>
       <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
         <v>76.31</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.96</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1162,13 +1300,16 @@
         <v>40</v>
       </c>
       <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
         <v>70.95999999999999</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.78</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1179,13 +1320,16 @@
         <v>40</v>
       </c>
       <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
         <v>70.95999999999999</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.78</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1196,13 +1340,16 @@
         <v>40</v>
       </c>
       <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
         <v>70.95999999999999</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>0.78</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1213,13 +1360,16 @@
         <v>40</v>
       </c>
       <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
         <v>70.95999999999999</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>0.78</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1230,13 +1380,16 @@
         <v>40</v>
       </c>
       <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
         <v>70.95999999999999</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>0.78</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1247,13 +1400,16 @@
         <v>40</v>
       </c>
       <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
         <v>70.95999999999999</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.78</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1264,13 +1420,16 @@
         <v>40</v>
       </c>
       <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
         <v>70.95999999999999</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>0.78</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1281,13 +1440,16 @@
         <v>40</v>
       </c>
       <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
         <v>69.31999999999999</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>2.4</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1298,13 +1460,16 @@
         <v>40</v>
       </c>
       <c r="D54">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F54">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1315,13 +1480,16 @@
         <v>40</v>
       </c>
       <c r="D55">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F55">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1332,13 +1500,16 @@
         <v>40</v>
       </c>
       <c r="D56">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F56">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1349,13 +1520,16 @@
         <v>40</v>
       </c>
       <c r="D57">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F57">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1366,13 +1540,16 @@
         <v>40</v>
       </c>
       <c r="D58">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F58">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1383,13 +1560,16 @@
         <v>40</v>
       </c>
       <c r="D59">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F59">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1400,13 +1580,16 @@
         <v>40</v>
       </c>
       <c r="D60">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F60">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1417,13 +1600,16 @@
         <v>40</v>
       </c>
       <c r="D61">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F61">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1434,13 +1620,16 @@
         <v>40</v>
       </c>
       <c r="D62">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F62">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1451,13 +1640,16 @@
         <v>40</v>
       </c>
       <c r="D63">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F63">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1468,13 +1660,16 @@
         <v>40</v>
       </c>
       <c r="D64">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F64">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1485,13 +1680,16 @@
         <v>40</v>
       </c>
       <c r="D65">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F65">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1502,13 +1700,16 @@
         <v>40</v>
       </c>
       <c r="D66">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F66">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1519,13 +1720,16 @@
         <v>40</v>
       </c>
       <c r="D67">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F67">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1536,13 +1740,16 @@
         <v>60</v>
       </c>
       <c r="D68">
+        <v>107</v>
+      </c>
+      <c r="E68">
         <v>92.51000000000001</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>0.64</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1553,13 +1760,16 @@
         <v>60</v>
       </c>
       <c r="D69">
+        <v>70</v>
+      </c>
+      <c r="E69">
         <v>90.79000000000001</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1570,13 +1780,16 @@
         <v>60</v>
       </c>
       <c r="D70">
+        <v>24</v>
+      </c>
+      <c r="E70">
         <v>89.48</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>0.88</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1587,13 +1800,16 @@
         <v>60</v>
       </c>
       <c r="D71">
+        <v>19</v>
+      </c>
+      <c r="E71">
         <v>87.69</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>0.84</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1604,13 +1820,16 @@
         <v>60</v>
       </c>
       <c r="D72">
+        <v>19</v>
+      </c>
+      <c r="E72">
         <v>87.69</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>0.84</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1621,13 +1840,16 @@
         <v>60</v>
       </c>
       <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="E73">
         <v>79.95999999999999</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>1.18</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1638,13 +1860,16 @@
         <v>60</v>
       </c>
       <c r="D74">
+        <v>7</v>
+      </c>
+      <c r="E74">
         <v>75.25</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>0.85</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1655,13 +1880,16 @@
         <v>60</v>
       </c>
       <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
         <v>74.14</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>1.01</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1672,13 +1900,16 @@
         <v>60</v>
       </c>
       <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
         <v>74.14</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>1.01</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1689,13 +1920,16 @@
         <v>60</v>
       </c>
       <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
         <v>69.39</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>1.33</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1706,13 +1940,16 @@
         <v>60</v>
       </c>
       <c r="D78">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F78">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1723,13 +1960,16 @@
         <v>60</v>
       </c>
       <c r="D79">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F79">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1740,13 +1980,16 @@
         <v>60</v>
       </c>
       <c r="D80">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F80">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1757,13 +2000,16 @@
         <v>60</v>
       </c>
       <c r="D81">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F81">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1774,13 +2020,16 @@
         <v>60</v>
       </c>
       <c r="D82">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F82">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1791,13 +2040,16 @@
         <v>60</v>
       </c>
       <c r="D83">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F83">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1808,13 +2060,16 @@
         <v>60</v>
       </c>
       <c r="D84">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F84">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1825,13 +2080,16 @@
         <v>60</v>
       </c>
       <c r="D85">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F85">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1842,13 +2100,16 @@
         <v>60</v>
       </c>
       <c r="D86">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F86">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1859,13 +2120,16 @@
         <v>60</v>
       </c>
       <c r="D87">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F87">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1876,13 +2140,16 @@
         <v>60</v>
       </c>
       <c r="D88">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F88">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1893,13 +2160,16 @@
         <v>60</v>
       </c>
       <c r="D89">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F89">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1910,13 +2180,16 @@
         <v>60</v>
       </c>
       <c r="D90">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F90">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1927,13 +2200,16 @@
         <v>60</v>
       </c>
       <c r="D91">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F91">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1944,13 +2220,16 @@
         <v>60</v>
       </c>
       <c r="D92">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F92">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1961,13 +2240,16 @@
         <v>60</v>
       </c>
       <c r="D93">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F93">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1978,13 +2260,16 @@
         <v>60</v>
       </c>
       <c r="D94">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F94">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1995,13 +2280,16 @@
         <v>60</v>
       </c>
       <c r="D95">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F95">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2012,13 +2300,16 @@
         <v>60</v>
       </c>
       <c r="D96">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F96">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2029,13 +2320,16 @@
         <v>60</v>
       </c>
       <c r="D97">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F97">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2046,13 +2340,16 @@
         <v>60</v>
       </c>
       <c r="D98">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F98">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2063,13 +2360,16 @@
         <v>60</v>
       </c>
       <c r="D99">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F99">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2080,13 +2380,16 @@
         <v>60</v>
       </c>
       <c r="D100">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F100">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2097,13 +2400,16 @@
         <v>80</v>
       </c>
       <c r="D101">
+        <v>63</v>
+      </c>
+      <c r="E101">
         <v>90.15000000000001</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>0.58</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2114,13 +2420,16 @@
         <v>80</v>
       </c>
       <c r="D102">
+        <v>32</v>
+      </c>
+      <c r="E102">
         <v>87.89</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>0.88</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2131,13 +2440,16 @@
         <v>80</v>
       </c>
       <c r="D103">
+        <v>12</v>
+      </c>
+      <c r="E103">
         <v>84.17</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>0.92</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2148,13 +2460,16 @@
         <v>80</v>
       </c>
       <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104">
         <v>81.36</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>0.95</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2165,13 +2480,16 @@
         <v>80</v>
       </c>
       <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105">
         <v>81.36</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>0.95</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2182,13 +2500,16 @@
         <v>80</v>
       </c>
       <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
         <v>78.68000000000001</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>1.29</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2199,13 +2520,16 @@
         <v>80</v>
       </c>
       <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
         <v>74.14</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>1.01</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2216,13 +2540,16 @@
         <v>80</v>
       </c>
       <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
         <v>74.14</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>1.01</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2233,13 +2560,16 @@
         <v>80</v>
       </c>
       <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
         <v>74.14</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>1.01</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2250,13 +2580,16 @@
         <v>80</v>
       </c>
       <c r="D110">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F110">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2267,13 +2600,16 @@
         <v>80</v>
       </c>
       <c r="D111">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F111">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2284,13 +2620,16 @@
         <v>80</v>
       </c>
       <c r="D112">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F112">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2301,13 +2640,16 @@
         <v>80</v>
       </c>
       <c r="D113">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F113">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2318,13 +2660,16 @@
         <v>80</v>
       </c>
       <c r="D114">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F114">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2335,13 +2680,16 @@
         <v>80</v>
       </c>
       <c r="D115">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F115">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2352,13 +2700,16 @@
         <v>80</v>
       </c>
       <c r="D116">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F116">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2369,13 +2720,16 @@
         <v>80</v>
       </c>
       <c r="D117">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F117">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2386,13 +2740,16 @@
         <v>80</v>
       </c>
       <c r="D118">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F118">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2403,13 +2760,16 @@
         <v>80</v>
       </c>
       <c r="D119">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F119">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2420,13 +2780,16 @@
         <v>80</v>
       </c>
       <c r="D120">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F120">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2437,13 +2800,16 @@
         <v>80</v>
       </c>
       <c r="D121">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F121">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2454,13 +2820,16 @@
         <v>80</v>
       </c>
       <c r="D122">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E122">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F122">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2471,13 +2840,16 @@
         <v>80</v>
       </c>
       <c r="D123">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F123">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2488,13 +2860,16 @@
         <v>80</v>
       </c>
       <c r="D124">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F124">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2505,13 +2880,16 @@
         <v>80</v>
       </c>
       <c r="D125">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F125">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2522,13 +2900,16 @@
         <v>80</v>
       </c>
       <c r="D126">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F126">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2539,13 +2920,16 @@
         <v>80</v>
       </c>
       <c r="D127">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F127">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2556,13 +2940,16 @@
         <v>80</v>
       </c>
       <c r="D128">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F128">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2573,13 +2960,16 @@
         <v>80</v>
       </c>
       <c r="D129">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F129">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2590,13 +2980,16 @@
         <v>80</v>
       </c>
       <c r="D130">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F130">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2607,13 +3000,16 @@
         <v>80</v>
       </c>
       <c r="D131">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F131">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2624,13 +3020,16 @@
         <v>80</v>
       </c>
       <c r="D132">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>66.22</v>
+      </c>
+      <c r="F132">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2641,9 +3040,12 @@
         <v>80</v>
       </c>
       <c r="D133">
-        <v>66.22</v>
+        <v>2</v>
       </c>
       <c r="E133">
+        <v>66.22</v>
+      </c>
+      <c r="F133">
         <v>0.86</v>
       </c>
     </row>
